--- a/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Edad-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.1085454399203334</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.418205985959747</v>
+        <v>1.418205985959746</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.572620255175717</v>
+        <v>-2.321046719692863</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8743940265832476</v>
+        <v>0.5157716778715498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.641441450414244</v>
+        <v>-4.730615986009771</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006804552855924201</v>
+        <v>0.2141364994252286</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.292982966652319</v>
+        <v>-0.2591871621239077</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05823709419969098</v>
+        <v>0.03643260760380772</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4822729175177192</v>
+        <v>-0.4697323558315649</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.196732029966222</v>
+        <v>-0.1223253297721006</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.583099424231198</v>
+        <v>4.537576790391231</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.933776064083192</v>
+        <v>7.589819351999537</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.969942462702572</v>
+        <v>2.589965825717972</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.500931410498122</v>
+        <v>9.454611555478293</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7561791618748713</v>
+        <v>0.7991379215485455</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.205739035160691</v>
+        <v>2.033081371382795</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.492726696394516</v>
+        <v>0.4576568228118683</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6.409231688875831</v>
+        <v>5.810026367653646</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.397931249659183</v>
+        <v>-1.289538356689316</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.436041566931376</v>
+        <v>2.243467046614619</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.674273879917801</v>
+        <v>-3.396635322751689</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.8590344493921329</v>
+        <v>-0.7197127734085789</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2034184909768243</v>
+        <v>-0.1863943914886492</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4473090865424864</v>
+        <v>0.3294019268422085</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4612259348621931</v>
+        <v>-0.4418071320649594</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4404968927393804</v>
+        <v>-0.4715093056431771</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.773689106130157</v>
+        <v>4.836303664833323</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.304674084868564</v>
+        <v>8.197804339784238</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.779186704007411</v>
+        <v>1.889552619603522</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.239126853237511</v>
+        <v>3.171298126685532</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9652165333286934</v>
+        <v>1.070036606898915</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.349895702946318</v>
+        <v>2.146051505147937</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4064663946526707</v>
+        <v>0.4150680352405096</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>8.592719908754296</v>
+        <v>6.50628802406167</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.346698909033806</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.913513424692875</v>
+        <v>1.913513424692873</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.009583035457221</v>
@@ -849,7 +849,7 @@
         <v>0.5146652995409894</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3765100442607563</v>
+        <v>0.376510044260756</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.33042560714072</v>
+        <v>1.428845086136276</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3374863495892315</v>
+        <v>-0.2953840472230717</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1936267469913629</v>
+        <v>-0.1232434401894948</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8353954987423486</v>
+        <v>-0.9064616368502445</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2071997823655942</v>
+        <v>0.2193441182319475</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.04220840804821072</v>
+        <v>-0.05127603124076839</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.03668627236261363</v>
+        <v>-0.02556447114847212</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1387050070112812</v>
+        <v>-0.1337487622008062</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.943020790515036</v>
+        <v>6.883074101654997</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.893014736499755</v>
+        <v>5.866786346811388</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.014898566105751</v>
+        <v>5.085341868433779</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.522145323668717</v>
+        <v>4.423281862612762</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.370514744365845</v>
+        <v>2.254354579992813</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9648087884010363</v>
+        <v>0.9207128031756296</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.52359142157194</v>
+        <v>1.531393549614671</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.251542404309327</v>
+        <v>1.227849345402271</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.2582819530880958</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.1249064298552611</v>
+        <v>-0.1249064298552618</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2739673107856041</v>
@@ -949,7 +949,7 @@
         <v>0.06752586813290722</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.03853418966362824</v>
+        <v>-0.03853418966362845</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.462484232626223</v>
+        <v>-1.517194447824523</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.993667771372155</v>
+        <v>-2.795769747323584</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.180770874404395</v>
+        <v>-2.188890218236996</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.03224536186876</v>
+        <v>-2.047393861726211</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3152104275499498</v>
+        <v>-0.3173470537240211</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.537270317657458</v>
+        <v>-0.5233955678238409</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4337426633440245</v>
+        <v>-0.4292561626633566</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4485629046133152</v>
+        <v>-0.4516871298308422</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.615295521345547</v>
+        <v>3.696704337783333</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.876328724487148</v>
+        <v>1.946213859208264</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.736188216819691</v>
+        <v>2.706307522788274</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.519599550872114</v>
+        <v>1.528756118150284</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.361581857791316</v>
+        <v>1.317265026361524</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5616312580878545</v>
+        <v>0.5910574523507638</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.071513103911313</v>
+        <v>1.084424088811414</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.733935417601725</v>
+        <v>0.6930514525942879</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.9892129792492994</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.8184383871335474</v>
+        <v>-0.8184383871335471</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04311170076540888</v>
@@ -1049,7 +1049,7 @@
         <v>0.4370856572065483</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3856727031889404</v>
+        <v>-0.3856727031889403</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.765658033332201</v>
+        <v>-2.400279203282682</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.311791160053859</v>
+        <v>-2.374513821648542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.188091668794677</v>
+        <v>-1.195470582487054</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.355862861238694</v>
+        <v>-2.342971603219487</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.534693891043566</v>
+        <v>-0.462706890372283</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5818445329438638</v>
+        <v>-0.5948604942947447</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4026828844818184</v>
+        <v>-0.3857027245353399</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.7433391262516121</v>
+        <v>-0.7365000730816185</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.872593650630152</v>
+        <v>2.892472597500494</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.339379443979531</v>
+        <v>2.194983753087341</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.210696104800076</v>
+        <v>3.236852368702112</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4517438810684525</v>
+        <v>0.4176119092326223</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.069567772117964</v>
+        <v>1.128697678045556</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.356916325114292</v>
+        <v>1.259874457169566</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.614120598656258</v>
+        <v>2.459032674501031</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.412815465003169</v>
+        <v>0.3180651423259327</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>0.6075513144228831</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.9939382584375257</v>
+        <v>-0.9939382584375258</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.4129169249905744</v>
@@ -1149,7 +1149,7 @@
         <v>0.3302882698540131</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.5229530108663886</v>
+        <v>-0.5229530108663887</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.240802123759864</v>
+        <v>-3.773955668635073</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.934794174265756</v>
+        <v>-5.08725445515245</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.423075434559606</v>
+        <v>-1.561556461360412</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.524489335483529</v>
+        <v>-2.435163491437488</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8355807633766</v>
+        <v>-0.8008586679954294</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.9411958938137975</v>
+        <v>-0.949154599341146</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5756964200446721</v>
+        <v>-0.6285812811089208</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8759702107264838</v>
+        <v>-0.8255678149780026</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7358472761785534</v>
+        <v>1.033390647917157</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.4608305879674102</v>
+        <v>-0.5885702569921494</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.149915986704757</v>
+        <v>2.804951125409572</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2664153830662499</v>
+        <v>0.2492392770794406</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5353265687985644</v>
+        <v>0.8062181782125126</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05893939254203241</v>
+        <v>0.01918053535243496</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.884733890087518</v>
+        <v>3.571672310081771</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3305817973489114</v>
+        <v>0.4934345104316836</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-0.09704413361731629</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.6152881342095696</v>
+        <v>-0.6152881342095693</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.03439970957092241</v>
@@ -1249,7 +1249,7 @@
         <v>-0.06094660382596901</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.5721086885256323</v>
+        <v>-0.5721086885256322</v>
       </c>
     </row>
     <row r="23">
@@ -1260,27 +1260,27 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.534436163289142</v>
+        <v>-2.601366667514369</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.123103467848442</v>
+        <v>-3.243526810687086</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.544177563093983</v>
+        <v>-2.477255344604155</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.324350191546933</v>
+        <v>-2.205219533610606</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.7741555444490282</v>
+        <v>-0.8013363402598925</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.8577967330398312</v>
-      </c>
-      <c r="I23" s="6" t="n">
+        <v>-0.8654808744609038</v>
+      </c>
+      <c r="I23" s="6" t="inlineStr"/>
+      <c r="J23" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="J23" s="6" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1290,27 +1290,27 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.141428042707813</v>
+        <v>2.187157460165379</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.309272932302894</v>
+        <v>1.580905164523256</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.013640081928545</v>
+        <v>1.98490153708229</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2703532326640595</v>
+        <v>0.324139594922097</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.61280649748494</v>
+        <v>2.486044990576672</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.350673748600312</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>4.969133574338384</v>
-      </c>
-      <c r="J24" s="6" t="inlineStr"/>
+        <v>2.763021855195102</v>
+      </c>
+      <c r="I24" s="6" t="inlineStr"/>
+      <c r="J24" s="6" t="n">
+        <v>3.209923891536573</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1333,7 +1333,7 @@
         <v>0.2464205157991034</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.5095059800383033</v>
+        <v>0.5095059800383037</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2386359072924679</v>
@@ -1345,7 +1345,7 @@
         <v>0.05730776726274332</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1852433096295868</v>
+        <v>0.185243309629587</v>
       </c>
     </row>
     <row r="26">
@@ -1356,28 +1356,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-3.621320204445923e-05</v>
+        <v>-0.02623053031808758</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2705074617094217</v>
+        <v>0.3640082156425102</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.746094253283074</v>
+        <v>-0.8130103926290733</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.4063776667792524</v>
+        <v>-0.3673548357545247</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.008340845379911532</v>
+        <v>-0.005378095532949306</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05111397385500767</v>
+        <v>0.06668501467450448</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1503302599650259</v>
+        <v>-0.1690488248569339</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1194876908361326</v>
+        <v>-0.1232091641916623</v>
       </c>
     </row>
     <row r="27">
@@ -1388,28 +1388,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.311887060960673</v>
+        <v>2.328904737691338</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.617795539777996</v>
+        <v>2.555223213884602</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.307767446076197</v>
+        <v>1.291291874559352</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.327541736932854</v>
+        <v>1.431299234767051</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5385479988127034</v>
+        <v>0.5656005629362771</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6255019100539317</v>
+        <v>0.5913425364979893</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3436912684266902</v>
+        <v>0.3399508915662005</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5948215373110245</v>
+        <v>0.6297933865722084</v>
       </c>
     </row>
     <row r="28">
